--- a/Excel/작업Summon.xlsx
+++ b/Excel/작업Summon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60ABC5C-DE3E-4003-9CF9-D85915673994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D4F18E-A131-4C4C-867A-F0F38BDEFD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D1402D74-4AB6-4804-BD75-5AE34C39A27D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D1402D74-4AB6-4804-BD75-5AE34C39A27D}"/>
   </bookViews>
   <sheets>
     <sheet name="SummonTypeTable" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="149">
   <si>
     <t>결과 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +765,13 @@
   <si>
     <t>아이템</t>
   </si>
+  <si>
+    <t>Cash_sCharacterGacha</t>
+  </si>
+  <si>
+    <t>Cash_sCharacterGacha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3278,7 +3285,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -3556,6 +3563,9 @@
       <c r="Y3" t="s">
         <v>90</v>
       </c>
+      <c r="AA3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="s">
@@ -4096,16 +4106,16 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I11">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
@@ -4126,15 +4136,15 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="6"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q11">
         <f t="shared" si="7"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -4620,16 +4630,16 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I18">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="3"/>
@@ -4650,15 +4660,15 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="6"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q18">
         <f t="shared" si="7"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R18" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -5438,20 +5448,20 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I29">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K29" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -5468,15 +5478,15 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="6"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -6548,16 +6558,16 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I44">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="3"/>
@@ -6578,15 +6588,15 @@
       </c>
       <c r="O44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P44" t="str">
         <f t="shared" si="6"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q44">
         <f t="shared" si="7"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -7068,16 +7078,16 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G51" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I51">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="3"/>
@@ -7098,15 +7108,15 @@
       </c>
       <c r="O51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P51" t="str">
         <f t="shared" si="6"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q51">
         <f t="shared" si="7"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R51" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -7882,20 +7892,20 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H62" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I62">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="3"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K62" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -7912,15 +7922,15 @@
       </c>
       <c r="O62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P62" t="str">
         <f t="shared" si="6"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q62">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R62" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -9150,16 +9160,16 @@
         <f t="shared" ref="F79:F96" ca="1" si="27">IF(ISBLANK(G79),"",
 VLOOKUP(G79,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G79" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H79" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I79">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="17"/>
@@ -9180,15 +9190,15 @@
       </c>
       <c r="O79" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P79" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q79">
         <f t="shared" si="20"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R79" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -9668,16 +9678,16 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G86" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H86" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I86">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="17"/>
@@ -9698,15 +9708,15 @@
       </c>
       <c r="O86" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P86" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q86">
         <f t="shared" si="20"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R86" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -10484,20 +10494,20 @@
         <f t="shared" ref="F97:F140" ca="1" si="28">IF(ISBLANK(G97),"",
 VLOOKUP(G97,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G97" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H97" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I97">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="17"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K97" t="str">
         <f t="shared" ca="1" si="26"/>
@@ -10514,15 +10524,15 @@
       </c>
       <c r="O97" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P97" t="str">
         <f t="shared" si="19"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q97">
         <f t="shared" si="20"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R97" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -12556,16 +12566,16 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G125" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H125" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I125">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="17"/>
@@ -12586,15 +12596,15 @@
       </c>
       <c r="O125" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P125" t="str">
         <f t="shared" si="19"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q125">
         <f t="shared" si="20"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R125" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -13080,16 +13090,16 @@
       </c>
       <c r="F132" t="str">
         <f t="shared" ca="1" si="28"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G132" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H132" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I132">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J132" t="str">
         <f t="shared" si="29"/>
@@ -13110,15 +13120,15 @@
       </c>
       <c r="O132" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P132" t="str">
         <f t="shared" si="31"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q132">
         <f t="shared" si="32"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R132" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -13900,20 +13910,20 @@
         <f t="shared" ref="F143:F202" ca="1" si="40">IF(ISBLANK(G143),"",
 VLOOKUP(G143,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G143" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H143" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I143">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="29"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K143" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -13930,15 +13940,15 @@
       </c>
       <c r="O143" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P143" t="str">
         <f t="shared" si="31"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q143">
         <f t="shared" si="32"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R143" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -16860,16 +16870,16 @@
       </c>
       <c r="F183" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G183" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H183" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I183">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J183" t="str">
         <f t="shared" si="29"/>
@@ -16890,15 +16900,15 @@
       </c>
       <c r="O183" t="str">
         <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P183" t="str">
         <f t="shared" si="31"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q183">
         <f t="shared" si="32"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R183" t="str">
         <f t="shared" ca="1" si="33"/>
@@ -17378,16 +17388,16 @@
       </c>
       <c r="F190" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G190" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H190" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I190">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J190" t="str">
         <f t="shared" ref="J190:J252" si="41">IF(G190="장비1상자",
@@ -17414,15 +17424,15 @@
       </c>
       <c r="O190" t="str">
         <f t="shared" ref="O190:O252" ca="1" si="42">IF(LEN(F190)=0,"",F190)</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P190" t="str">
         <f t="shared" ref="P190:P252" si="43">IF(LEN(H190)=0,"",H190)</f>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q190">
         <f t="shared" ref="Q190:Q252" si="44">IF(LEN(I190)=0,"",I190)</f>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R190" t="str">
         <f t="shared" ref="R190:R252" ca="1" si="45">IF(LEN(K190)=0,"",K190)</f>
@@ -18198,20 +18208,20 @@
       </c>
       <c r="F201" t="str">
         <f t="shared" ca="1" si="40"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G201" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H201" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I201">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J201" t="str">
         <f t="shared" si="41"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K201" t="str">
         <f t="shared" ca="1" si="38"/>
@@ -18228,15 +18238,15 @@
       </c>
       <c r="O201" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P201" t="str">
         <f t="shared" si="43"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q201">
         <f t="shared" si="44"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R201" t="str">
         <f t="shared" ca="1" si="45"/>
@@ -19830,16 +19840,16 @@
       </c>
       <c r="F223" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G223" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H223" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I223">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J223" t="str">
         <f t="shared" si="41"/>
@@ -19860,15 +19870,15 @@
       </c>
       <c r="O223" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P223" t="str">
         <f t="shared" si="43"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q223">
         <f t="shared" si="44"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R223" t="str">
         <f t="shared" ca="1" si="45"/>
@@ -20348,16 +20358,16 @@
       </c>
       <c r="F230" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G230" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H230" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I230">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J230" t="str">
         <f t="shared" si="41"/>
@@ -20378,15 +20388,15 @@
       </c>
       <c r="O230" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P230" t="str">
         <f t="shared" si="43"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q230">
         <f t="shared" si="44"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R230" t="str">
         <f t="shared" ca="1" si="45"/>
@@ -21162,20 +21172,20 @@
       </c>
       <c r="F241" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G241" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H241" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I241">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J241" t="str">
         <f t="shared" si="41"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K241" t="str">
         <f t="shared" ca="1" si="51"/>
@@ -21192,15 +21202,15 @@
       </c>
       <c r="O241" t="str">
         <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P241" t="str">
         <f t="shared" si="43"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q241">
         <f t="shared" si="44"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R241" t="str">
         <f t="shared" ca="1" si="45"/>
@@ -22796,16 +22806,16 @@
       </c>
       <c r="F263" t="str">
         <f t="shared" ca="1" si="50"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G263" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H263" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I263">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J263" t="str">
         <f t="shared" si="52"/>
@@ -22826,15 +22836,15 @@
       </c>
       <c r="O263" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P263" t="str">
         <f t="shared" si="54"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q263">
         <f t="shared" si="55"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R263" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -23318,16 +23328,16 @@
       </c>
       <c r="F270" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G270" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H270" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I270">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J270" t="str">
         <f t="shared" si="52"/>
@@ -23348,15 +23358,15 @@
       </c>
       <c r="O270" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P270" t="str">
         <f t="shared" si="54"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q270">
         <f t="shared" si="55"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R270" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -24134,20 +24144,20 @@
         <f t="shared" ref="F281:F327" ca="1" si="63">IF(ISBLANK(G281),"",
 VLOOKUP(G281,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G281" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H281" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I281">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J281" t="str">
         <f t="shared" si="52"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K281" t="str">
         <f t="shared" ca="1" si="61"/>
@@ -24164,15 +24174,15 @@
       </c>
       <c r="O281" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P281" t="str">
         <f t="shared" si="54"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q281">
         <f t="shared" si="55"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R281" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -25762,16 +25772,16 @@
       </c>
       <c r="F303" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G303" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H303" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I303">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J303" t="str">
         <f t="shared" si="52"/>
@@ -25792,15 +25802,15 @@
       </c>
       <c r="O303" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P303" t="str">
         <f t="shared" si="54"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q303">
         <f t="shared" si="55"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R303" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -26280,16 +26290,16 @@
       </c>
       <c r="F310" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G310" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H310" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I310">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J310" t="str">
         <f t="shared" si="52"/>
@@ -26310,15 +26320,15 @@
       </c>
       <c r="O310" t="str">
         <f t="shared" ca="1" si="53"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P310" t="str">
         <f t="shared" si="54"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q310">
         <f t="shared" si="55"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R310" t="str">
         <f t="shared" ca="1" si="56"/>
@@ -27100,20 +27110,20 @@
       </c>
       <c r="F321" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G321" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H321" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I321">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J321" t="str">
         <f t="shared" si="64"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K321" t="str">
         <f t="shared" ca="1" si="61"/>
@@ -27130,15 +27140,15 @@
       </c>
       <c r="O321" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P321" t="str">
         <f t="shared" si="66"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q321">
         <f t="shared" si="67"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R321" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -28732,16 +28742,16 @@
       </c>
       <c r="F343" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G343" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H343" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I343">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J343" t="str">
         <f t="shared" si="64"/>
@@ -28762,15 +28772,15 @@
       </c>
       <c r="O343" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P343" t="str">
         <f t="shared" si="66"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q343">
         <f t="shared" si="67"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R343" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -29250,16 +29260,16 @@
       </c>
       <c r="F350" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G350" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H350" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I350">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J350" t="str">
         <f t="shared" si="64"/>
@@ -29280,15 +29290,15 @@
       </c>
       <c r="O350" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P350" t="str">
         <f t="shared" si="66"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q350">
         <f t="shared" si="67"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R350" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -30064,20 +30074,20 @@
       </c>
       <c r="F361" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G361" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H361" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I361">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J361" t="str">
         <f t="shared" si="64"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K361" t="str">
         <f t="shared" ca="1" si="74"/>
@@ -30094,15 +30104,15 @@
       </c>
       <c r="O361" t="str">
         <f t="shared" ca="1" si="65"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P361" t="str">
         <f t="shared" si="66"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q361">
         <f t="shared" si="67"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R361" t="str">
         <f t="shared" ca="1" si="68"/>
@@ -31698,16 +31708,16 @@
       </c>
       <c r="F383" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G383" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H383" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I383">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J383" t="str">
         <f t="shared" si="75"/>
@@ -31728,15 +31738,15 @@
       </c>
       <c r="O383" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P383" t="str">
         <f t="shared" si="77"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q383">
         <f t="shared" si="78"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R383" t="str">
         <f t="shared" ca="1" si="79"/>
@@ -32216,16 +32226,16 @@
       </c>
       <c r="F390" t="str">
         <f t="shared" ca="1" si="73"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G390" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H390" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I390">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J390" t="str">
         <f t="shared" si="75"/>
@@ -32248,15 +32258,15 @@
       </c>
       <c r="O390" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P390" t="str">
         <f t="shared" si="77"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q390">
         <f t="shared" si="78"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R390" t="str">
         <f t="shared" ca="1" si="79"/>
@@ -33036,20 +33046,20 @@
         <f t="shared" ref="F401:F452" ca="1" si="86">IF(ISBLANK(G401),"",
 VLOOKUP(G401,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G401" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H401" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I401">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J401" t="str">
         <f t="shared" si="75"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K401" t="str">
         <f t="shared" ca="1" si="84"/>
@@ -33066,15 +33076,15 @@
       </c>
       <c r="O401" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P401" t="str">
         <f t="shared" si="77"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q401">
         <f t="shared" si="78"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R401" t="str">
         <f t="shared" ca="1" si="79"/>
@@ -34664,16 +34674,16 @@
       </c>
       <c r="F423" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G423" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H423" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I423">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J423" t="str">
         <f t="shared" si="75"/>
@@ -34694,15 +34704,15 @@
       </c>
       <c r="O423" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P423" t="str">
         <f t="shared" si="77"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q423">
         <f t="shared" si="78"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R423" t="str">
         <f t="shared" ca="1" si="79"/>
@@ -35182,16 +35192,16 @@
       </c>
       <c r="F430" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G430" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H430" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I430">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J430" t="str">
         <f t="shared" si="75"/>
@@ -35212,15 +35222,15 @@
       </c>
       <c r="O430" t="str">
         <f t="shared" ca="1" si="76"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P430" t="str">
         <f t="shared" si="77"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q430">
         <f t="shared" si="78"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R430" t="str">
         <f t="shared" ca="1" si="79"/>
@@ -36002,20 +36012,20 @@
       </c>
       <c r="F441" t="str">
         <f t="shared" ca="1" si="86"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G441" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H441" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I441">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J441" t="str">
         <f t="shared" si="87"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K441" t="str">
         <f t="shared" ca="1" si="84"/>
@@ -36032,15 +36042,15 @@
       </c>
       <c r="O441" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P441" t="str">
         <f t="shared" si="89"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q441">
         <f t="shared" si="90"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R441" t="str">
         <f t="shared" ca="1" si="91"/>
@@ -37634,16 +37644,16 @@
       </c>
       <c r="F463" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G463" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H463" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I463">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J463" t="str">
         <f t="shared" si="87"/>
@@ -37664,15 +37674,15 @@
       </c>
       <c r="O463" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P463" t="str">
         <f t="shared" si="89"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q463">
         <f t="shared" si="90"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R463" t="str">
         <f t="shared" ca="1" si="91"/>
@@ -38152,16 +38162,16 @@
       </c>
       <c r="F470" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G470" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H470" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I470">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J470" t="str">
         <f t="shared" si="87"/>
@@ -38182,15 +38192,15 @@
       </c>
       <c r="O470" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P470" t="str">
         <f t="shared" si="89"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q470">
         <f t="shared" si="90"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R470" t="str">
         <f t="shared" ca="1" si="91"/>
@@ -38966,20 +38976,20 @@
       </c>
       <c r="F481" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G481" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H481" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I481">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J481" t="str">
         <f t="shared" si="87"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K481" t="str">
         <f t="shared" ca="1" si="97"/>
@@ -38996,15 +39006,15 @@
       </c>
       <c r="O481" t="str">
         <f t="shared" ca="1" si="88"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P481" t="str">
         <f t="shared" si="89"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q481">
         <f t="shared" si="90"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R481" t="str">
         <f t="shared" ca="1" si="91"/>
@@ -40600,16 +40610,16 @@
       </c>
       <c r="F503" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G503" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H503" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I503">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J503" t="str">
         <f t="shared" si="98"/>
@@ -40630,15 +40640,15 @@
       </c>
       <c r="O503" t="str">
         <f t="shared" ca="1" si="99"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P503" t="str">
         <f t="shared" si="100"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q503">
         <f t="shared" si="101"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R503" t="str">
         <f t="shared" ca="1" si="102"/>
@@ -41118,16 +41128,16 @@
       </c>
       <c r="F510" t="str">
         <f t="shared" ca="1" si="96"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G510" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H510" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I510">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J510" t="str">
         <f t="shared" si="98"/>
@@ -41148,15 +41158,15 @@
       </c>
       <c r="O510" t="str">
         <f t="shared" ca="1" si="99"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P510" t="str">
         <f t="shared" si="100"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q510">
         <f t="shared" si="101"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R510" t="str">
         <f t="shared" ca="1" si="102"/>
@@ -41938,20 +41948,20 @@
         <f t="shared" ref="F521:F578" ca="1" si="109">IF(ISBLANK(G521),"",
 VLOOKUP(G521,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G521" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H521" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I521">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J521" t="str">
         <f t="shared" si="98"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K521" t="str">
         <f t="shared" ca="1" si="107"/>
@@ -41968,15 +41978,15 @@
       </c>
       <c r="O521" t="str">
         <f t="shared" ca="1" si="99"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P521" t="str">
         <f t="shared" si="100"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q521">
         <f t="shared" si="101"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R521" t="str">
         <f t="shared" ca="1" si="102"/>
@@ -43566,16 +43576,16 @@
       </c>
       <c r="F543" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G543" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H543" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I543">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J543" t="str">
         <f t="shared" si="98"/>
@@ -43596,15 +43606,15 @@
       </c>
       <c r="O543" t="str">
         <f t="shared" ca="1" si="99"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P543" t="str">
         <f t="shared" si="100"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q543">
         <f t="shared" si="101"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R543" t="str">
         <f t="shared" ca="1" si="102"/>
@@ -44084,16 +44094,16 @@
       </c>
       <c r="F550" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G550" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H550" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I550">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J550" t="str">
         <f t="shared" si="98"/>
@@ -44114,15 +44124,15 @@
       </c>
       <c r="O550" t="str">
         <f t="shared" ca="1" si="99"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P550" t="str">
         <f t="shared" si="100"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q550">
         <f t="shared" si="101"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R550" t="str">
         <f t="shared" ca="1" si="102"/>
@@ -44898,20 +44908,20 @@
       </c>
       <c r="F561" t="str">
         <f t="shared" ca="1" si="109"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G561" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H561" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I561">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J561" t="str">
         <f t="shared" si="98"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K561" t="str">
         <f t="shared" ca="1" si="107"/>
@@ -44928,15 +44938,15 @@
       </c>
       <c r="O561" t="str">
         <f t="shared" ca="1" si="99"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P561" t="str">
         <f t="shared" si="100"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q561">
         <f t="shared" si="101"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R561" t="str">
         <f t="shared" ca="1" si="102"/>
@@ -46536,16 +46546,16 @@
       </c>
       <c r="F583" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G583" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H583" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I583">
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="J583" t="str">
         <f t="shared" si="110"/>
@@ -46566,15 +46576,15 @@
       </c>
       <c r="O583" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P583" t="str">
         <f t="shared" si="112"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q583">
         <f t="shared" si="113"/>
-        <v>5625</v>
+        <v>1</v>
       </c>
       <c r="R583" t="str">
         <f t="shared" ca="1" si="114"/>
@@ -47054,16 +47064,16 @@
       </c>
       <c r="F590" t="str">
         <f t="shared" ca="1" si="120"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G590" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H590" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="I590">
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="J590" t="str">
         <f t="shared" si="110"/>
@@ -47084,15 +47094,15 @@
       </c>
       <c r="O590" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P590" t="str">
         <f t="shared" si="112"/>
-        <v>GO</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q590">
         <f t="shared" si="113"/>
-        <v>28750</v>
+        <v>1</v>
       </c>
       <c r="R590" t="str">
         <f t="shared" ca="1" si="114"/>
@@ -47870,20 +47880,20 @@
         <f t="shared" ref="F601:F613" ca="1" si="121">IF(ISBLANK(G601),"",
 VLOOKUP(G601,OFFSET(INDIRECT("$A:$B"),0,MATCH(G$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="G601" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H601" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I601">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="J601" t="str">
         <f t="shared" si="110"/>
-        <v>에너지너무많음</v>
+        <v/>
       </c>
       <c r="K601" t="str">
         <f t="shared" ca="1" si="117"/>
@@ -47900,15 +47910,15 @@
       </c>
       <c r="O601" t="str">
         <f t="shared" ca="1" si="111"/>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="P601" t="str">
         <f t="shared" si="112"/>
-        <v>EN</v>
+        <v>Cash_sCharacterGacha</v>
       </c>
       <c r="Q601">
         <f t="shared" si="113"/>
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="R601" t="str">
         <f t="shared" ca="1" si="114"/>

--- a/Excel/작업Summon.xlsx
+++ b/Excel/작업Summon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D4F18E-A131-4C4C-867A-F0F38BDEFD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89EE9C-1D8B-4894-91F4-04A0D1F825C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D1402D74-4AB6-4804-BD75-5AE34C39A27D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{D1402D74-4AB6-4804-BD75-5AE34C39A27D}"/>
   </bookViews>
   <sheets>
     <sheet name="SummonTypeTable" sheetId="1" r:id="rId1"/>
@@ -3279,30 +3279,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F68268-BCC5-463A-AA9E-1F9126D7E42C}">
-  <dimension ref="A1:AC613"/>
+  <dimension ref="A1:AD613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="10" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="18.75" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="23" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="19.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" collapsed="1"/>
+    <col min="6" max="6" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="18.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9" collapsed="1"/>
+    <col min="22" max="23" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" collapsed="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" collapsed="1"/>
+    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" collapsed="1"/>
+    <col min="29" max="29" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27" customHeight="1">
@@ -3395,11 +3401,11 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="1">IF(A2&lt;&gt;OFFSET(A2,-1,0),D2,OFFSET(E2,-1,0)+D2)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F13" ca="1" si="2">IF(ISBLANK(G2),"",
@@ -3494,11 +3500,11 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3580,11 +3586,11 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3654,11 +3660,11 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3728,11 +3734,11 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3802,11 +3808,11 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3876,11 +3882,11 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3950,11 +3956,11 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4024,11 +4030,11 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4098,11 +4104,11 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4112,7 +4118,7 @@
         <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4140,7 +4146,7 @@
       </c>
       <c r="P11" t="str">
         <f t="shared" si="6"/>
-        <v>Cash_sCharacterGacha</v>
+        <v>Cash_sSpellGacha</v>
       </c>
       <c r="Q11">
         <f t="shared" si="7"/>
@@ -4172,11 +4178,11 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>462</v>
+        <v>347</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4246,11 +4252,11 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>582</v>
+        <v>437</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4320,11 +4326,11 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>762</v>
+        <v>572</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ref="F14" ca="1" si="11">IF(ISBLANK(G14),"",
@@ -4396,11 +4402,11 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>962</v>
+        <v>722</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ref="F15:F78" ca="1" si="12">IF(ISBLANK(G15),"",
@@ -4474,11 +4480,11 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>1112</v>
+        <v>835</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4548,11 +4554,11 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>1432</v>
+        <v>1075</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4622,11 +4628,11 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>1882</v>
+        <v>1413</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4636,7 +4642,7 @@
         <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4664,7 +4670,7 @@
       </c>
       <c r="P18" t="str">
         <f t="shared" si="6"/>
-        <v>Cash_sCharacterGacha</v>
+        <v>Cash_sSpellGacha</v>
       </c>
       <c r="Q18">
         <f t="shared" si="7"/>
@@ -4696,11 +4702,11 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>2382</v>
+        <v>1788</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4770,11 +4776,11 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>2582</v>
+        <v>1938</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4844,11 +4850,11 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>2912</v>
+        <v>2186</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ref="F21" ca="1" si="14">IF(ISBLANK(G21),"",
@@ -4920,11 +4926,11 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>3912</v>
+        <v>2936</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -4994,11 +5000,11 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>4242</v>
+        <v>3184</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5068,11 +5074,11 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>590</v>
+        <v>443</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>4832</v>
+        <v>3627</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ref="F24" ca="1" si="15">IF(ISBLANK(G24),"",
@@ -5144,11 +5150,11 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>6082</v>
+        <v>4565</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5218,11 +5224,11 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>1900</v>
+        <v>1425</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>7982</v>
+        <v>5990</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5292,11 +5298,11 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>8182</v>
+        <v>6140</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5366,11 +5372,11 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>8582</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5440,11 +5446,11 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>10982</v>
+        <v>8240</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5454,7 +5460,7 @@
         <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I29">
         <v>10</v>
@@ -5482,7 +5488,7 @@
       </c>
       <c r="P29" t="str">
         <f t="shared" si="6"/>
-        <v>Cash_sCharacterGacha</v>
+        <v>Cash_sSpellGacha</v>
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
@@ -5514,11 +5520,11 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>1500</v>
+        <v>1125</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>12482</v>
+        <v>9365</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5588,11 +5594,11 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>15282</v>
+        <v>11465</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5662,11 +5668,11 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>3400</v>
+        <v>2550</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>18682</v>
+        <v>14015</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5736,11 +5742,11 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>19882</v>
+        <v>14915</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="12"/>
@@ -5810,11 +5816,11 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>4700</v>
+        <v>3525</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>24582</v>
+        <v>18440</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="12"/>
